--- a/files/BARRIOS Y COMUNAS OFIC PLANEACION.xlsx
+++ b/files/BARRIOS Y COMUNAS OFIC PLANEACION.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="592">
   <si>
     <t>NUMERO_COMUNA</t>
   </si>
@@ -586,7 +586,7 @@
     <t>Real de Minas</t>
   </si>
   <si>
-    <t>Ciudad Bolivar, Los naranjos</t>
+    <t>Ciudad Bolivar, naranjos, ACROPOLIS</t>
   </si>
   <si>
     <t>GRANDEUR CIELO , Rincon de los caballeros</t>
@@ -1057,6 +1057,9 @@
     <t>Lagos del Cacique</t>
   </si>
   <si>
+    <t>TESORO DEL CACIQUE</t>
+  </si>
+  <si>
     <t>San Expedito</t>
   </si>
   <si>
@@ -1360,7 +1363,7 @@
     <t>Trinitarios</t>
   </si>
   <si>
-    <t xml:space="preserve">Arcos del Campestre, Condado Campestre, Parque Campestre, Plaza Marsella, Portales del Campestre, Torres de Madeira , </t>
+    <t>Arcos del Campestre, Condado Campestre, Parque Campestre, Plaza Marsella, Portales del Campestre, Torres de Madeira</t>
   </si>
   <si>
     <t>El Progreso</t>
@@ -1561,7 +1564,7 @@
     <t>Bellavista</t>
   </si>
   <si>
-    <t>Altos de Bellavista, Balcones del Oriente, Panorama (APTOS)</t>
+    <t>Altos de Bellavista, Balcones del Oriente, Panorama</t>
   </si>
   <si>
     <t>Florida</t>
@@ -1697,6 +1700,9 @@
   </si>
   <si>
     <t>Corivandi 1</t>
+  </si>
+  <si>
+    <t>Corviandi</t>
   </si>
   <si>
     <t>Corivandi 3</t>
@@ -1854,10 +1860,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1872,6 +1874,9 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
     </font>
     <font>
       <b/>
@@ -1939,33 +1944,30 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1974,10 +1976,13 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1990,7 +1995,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2378,7 +2383,7 @@
       <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="6"/>
@@ -3081,7 +3086,7 @@
       <c r="C35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E35" s="4"/>
@@ -3153,7 +3158,7 @@
       <c r="C38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>56</v>
       </c>
       <c r="E38" s="4"/>
@@ -3225,7 +3230,7 @@
       <c r="C41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>59</v>
       </c>
       <c r="E41" s="4"/>
@@ -3249,7 +3254,7 @@
       <c r="C42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E42" s="4"/>
@@ -3321,7 +3326,7 @@
       <c r="C45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>63</v>
       </c>
       <c r="E45" s="4"/>
@@ -3345,10 +3350,10 @@
       <c r="C46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="12" t="s">
         <v>65</v>
       </c>
       <c r="F46" s="4"/>
@@ -3731,7 +3736,7 @@
       <c r="C62" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="11" t="s">
         <v>83</v>
       </c>
       <c r="E62" s="5"/>
@@ -3779,14 +3784,14 @@
       <c r="C64" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
       <c r="H64" s="6" t="s">
         <v>14</v>
       </c>
@@ -3805,14 +3810,14 @@
       <c r="C65" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="11" t="s">
         <v>87</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
       <c r="H65" s="6" t="s">
         <v>14</v>
       </c>
@@ -4473,7 +4478,7 @@
       <c r="C92" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E92" s="5"/>
@@ -4617,7 +4622,7 @@
       <c r="C98" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="9" t="s">
         <v>134</v>
       </c>
       <c r="E98" s="5"/>
@@ -4665,7 +4670,7 @@
       <c r="C100" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="9" t="s">
         <v>136</v>
       </c>
       <c r="E100" s="5"/>
@@ -4737,7 +4742,7 @@
       <c r="C103" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D103" s="16" t="s">
+      <c r="D103" s="15" t="s">
         <v>139</v>
       </c>
       <c r="E103" s="5"/>
@@ -4761,12 +4766,12 @@
       <c r="C104" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D104" s="12" t="s">
+      <c r="D104" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
       <c r="H104" s="6" t="s">
         <v>14</v>
       </c>
@@ -5149,7 +5154,7 @@
       <c r="C120" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D120" s="9" t="s">
         <v>159</v>
       </c>
       <c r="E120" s="5"/>
@@ -5197,7 +5202,7 @@
       <c r="C122" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="10" t="s">
         <v>163</v>
       </c>
       <c r="E122" s="5"/>
@@ -5371,16 +5376,16 @@
       <c r="C129" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D129" s="12" t="s">
+      <c r="D129" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E129" s="17" t="s">
+      <c r="E129" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F129" s="18" t="s">
+      <c r="F129" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="G129" s="19"/>
+      <c r="G129" s="18"/>
       <c r="H129" s="8" t="s">
         <v>14</v>
       </c>
@@ -6125,7 +6130,7 @@
         <v>213</v>
       </c>
       <c r="E160" s="5"/>
-      <c r="F160" s="9" t="s">
+      <c r="F160" s="6" t="s">
         <v>214</v>
       </c>
       <c r="G160" s="5"/>
@@ -6345,7 +6350,7 @@
       <c r="E169" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F169" s="9" t="s">
+      <c r="F169" s="6" t="s">
         <v>226</v>
       </c>
       <c r="G169" s="6" t="s">
@@ -6417,7 +6422,7 @@
       <c r="C172" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D172" s="10" t="s">
+      <c r="D172" s="9" t="s">
         <v>230</v>
       </c>
       <c r="E172" s="5"/>
@@ -6465,7 +6470,7 @@
       <c r="C174" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D174" s="16" t="s">
+      <c r="D174" s="15" t="s">
         <v>234</v>
       </c>
       <c r="E174" s="5"/>
@@ -6489,7 +6494,7 @@
       <c r="C175" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D175" s="16" t="s">
+      <c r="D175" s="15" t="s">
         <v>235</v>
       </c>
       <c r="E175" s="5"/>
@@ -6513,7 +6518,7 @@
       <c r="C176" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D176" s="16" t="s">
+      <c r="D176" s="15" t="s">
         <v>236</v>
       </c>
       <c r="E176" s="5"/>
@@ -6537,7 +6542,7 @@
       <c r="C177" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D177" s="16" t="s">
+      <c r="D177" s="15" t="s">
         <v>237</v>
       </c>
       <c r="E177" s="5"/>
@@ -6561,7 +6566,7 @@
       <c r="C178" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D178" s="16" t="s">
+      <c r="D178" s="15" t="s">
         <v>238</v>
       </c>
       <c r="E178" s="5"/>
@@ -6585,7 +6590,7 @@
       <c r="C179" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D179" s="16" t="s">
+      <c r="D179" s="15" t="s">
         <v>239</v>
       </c>
       <c r="E179" s="5"/>
@@ -6609,7 +6614,7 @@
       <c r="C180" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D180" s="11" t="s">
+      <c r="D180" s="10" t="s">
         <v>240</v>
       </c>
       <c r="E180" s="5"/>
@@ -6660,11 +6665,11 @@
       <c r="D182" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E182" s="20" t="s">
+      <c r="E182" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="F182" s="21"/>
-      <c r="G182" s="21"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="17"/>
       <c r="H182" s="6" t="s">
         <v>14</v>
       </c>
@@ -6779,7 +6784,7 @@
       <c r="C187" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D187" s="16" t="s">
+      <c r="D187" s="15" t="s">
         <v>248</v>
       </c>
       <c r="E187" s="6" t="s">
@@ -6833,7 +6838,7 @@
         <v>251</v>
       </c>
       <c r="E189" s="5"/>
-      <c r="F189" s="9" t="s">
+      <c r="F189" s="6" t="s">
         <v>252</v>
       </c>
       <c r="G189" s="5"/>
@@ -7441,7 +7446,7 @@
       <c r="C214" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D214" s="16" t="s">
+      <c r="D214" s="15" t="s">
         <v>284</v>
       </c>
       <c r="E214" s="5"/>
@@ -7468,9 +7473,9 @@
       <c r="D215" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="E215" s="19"/>
-      <c r="F215" s="19"/>
-      <c r="G215" s="21" t="s">
+      <c r="E215" s="18"/>
+      <c r="F215" s="18"/>
+      <c r="G215" s="17" t="s">
         <v>288</v>
       </c>
       <c r="H215" s="6" t="s">
@@ -7863,7 +7868,7 @@
       <c r="C231" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D231" s="16" t="s">
+      <c r="D231" s="15" t="s">
         <v>312</v>
       </c>
       <c r="E231" s="5"/>
@@ -8133,7 +8138,7 @@
         <v>328</v>
       </c>
       <c r="E242" s="5"/>
-      <c r="F242" s="9" t="s">
+      <c r="F242" s="6" t="s">
         <v>329</v>
       </c>
       <c r="G242" s="5"/>
@@ -8206,7 +8211,9 @@
       <c r="D245" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="E245" s="5"/>
+      <c r="E245" s="20" t="s">
+        <v>333</v>
+      </c>
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
       <c r="H245" s="6" t="s">
@@ -8228,7 +8235,7 @@
         <v>323</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
@@ -8252,7 +8259,7 @@
         <v>323</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
@@ -8270,13 +8277,13 @@
         <v>17.0</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
@@ -8294,13 +8301,13 @@
         <v>17.0</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
@@ -8318,19 +8325,19 @@
         <v>17.0</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="E250" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="F250" s="22"/>
-      <c r="G250" s="22"/>
+      <c r="E250" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="F250" s="21"/>
+      <c r="G250" s="21"/>
       <c r="H250" s="6" t="s">
         <v>14</v>
       </c>
@@ -8344,13 +8351,13 @@
         <v>17.0</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
@@ -8368,13 +8375,13 @@
         <v>17.0</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
@@ -8392,18 +8399,18 @@
         <v>17.0</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
       <c r="G253" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H253" s="6" t="s">
         <v>14</v>
@@ -8418,18 +8425,18 @@
         <v>17.0</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
       <c r="G254" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H254" s="6" t="s">
         <v>14</v>
@@ -8444,20 +8451,20 @@
         <v>17.0</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F255" s="5"/>
       <c r="G255" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H255" s="6" t="s">
         <v>14</v>
@@ -8472,17 +8479,17 @@
         <v>17.0</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E256" s="17"/>
-      <c r="F256" s="19"/>
-      <c r="G256" s="19"/>
+        <v>351</v>
+      </c>
+      <c r="E256" s="22"/>
+      <c r="F256" s="18"/>
+      <c r="G256" s="18"/>
       <c r="H256" s="6" t="s">
         <v>14</v>
       </c>
@@ -8501,11 +8508,11 @@
       <c r="C257" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D257" s="16" t="s">
-        <v>351</v>
+      <c r="D257" s="15" t="s">
+        <v>352</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F257" s="4"/>
       <c r="G257" s="4"/>
@@ -8522,19 +8529,19 @@
         <v>18.0</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
       <c r="H258" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I258" s="7" t="str">
         <f t="array" ref="I258">D258</f>
@@ -8546,19 +8553,19 @@
         <v>18.0</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
       <c r="H259" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I259" s="7" t="str">
         <f t="array" ref="I259">D259</f>
@@ -8570,19 +8577,19 @@
         <v>18.0</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
       <c r="H260" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I260" s="7" t="str">
         <f t="array" ref="I260">D260</f>
@@ -8594,19 +8601,19 @@
         <v>18.0</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
       <c r="H261" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I261" s="7" t="str">
         <f t="array" ref="I261">D261</f>
@@ -8618,19 +8625,19 @@
         <v>18.0</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
       <c r="G262" s="5"/>
       <c r="H262" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I262" s="7" t="str">
         <f t="array" ref="I262">D262</f>
@@ -8642,19 +8649,19 @@
         <v>18.0</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
       <c r="H263" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I263" s="7" t="str">
         <f t="array" ref="I263">D263</f>
@@ -8666,19 +8673,19 @@
         <v>18.0</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
       <c r="H264" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I264" s="7" t="str">
         <f t="array" ref="I264">D264</f>
@@ -8690,19 +8697,19 @@
         <v>18.0</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
       <c r="H265" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I265" s="7" t="str">
         <f t="array" ref="I265">D265</f>
@@ -8714,19 +8721,19 @@
         <v>18.0</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
       <c r="H266" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I266" s="7" t="str">
         <f t="array" ref="I266">D266</f>
@@ -8738,19 +8745,19 @@
         <v>18.0</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>
       <c r="H267" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I267" s="7" t="str">
         <f t="array" ref="I267">D267</f>
@@ -8762,19 +8769,19 @@
         <v>18.0</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
       <c r="G268" s="5"/>
       <c r="H268" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I268" s="7" t="str">
         <f t="array" ref="I268">D268</f>
@@ -8786,19 +8793,19 @@
         <v>18.0</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
       <c r="G269" s="5"/>
       <c r="H269" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I269" s="7" t="str">
         <f t="array" ref="I269">H269&amp; D269</f>
@@ -8810,19 +8817,19 @@
         <v>18.0</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
       <c r="G270" s="5"/>
       <c r="H270" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I270" s="7" t="str">
         <f t="array" ref="I270">H270&amp; D270</f>
@@ -8834,19 +8841,19 @@
         <v>18.0</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
       <c r="H271" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I271" s="7" t="str">
         <f t="array" ref="I271">H271&amp; D271</f>
@@ -8858,19 +8865,19 @@
         <v>18.0</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
       <c r="G272" s="5"/>
       <c r="H272" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I272" s="7" t="str">
         <f t="array" ref="I272">H272&amp; D272</f>
@@ -8882,19 +8889,19 @@
         <v>18.0</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
       <c r="H273" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I273" s="7" t="str">
         <f t="array" ref="I273">H273&amp; D273</f>
@@ -8906,19 +8913,19 @@
         <v>18.0</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E274" s="5"/>
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
       <c r="H274" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I274" s="7" t="str">
         <f t="array" ref="I274">H274&amp; D274</f>
@@ -8930,19 +8937,19 @@
         <v>19.0</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
       <c r="G275" s="5"/>
       <c r="H275" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I275" s="7" t="str">
         <f t="array" ref="I275">D275</f>
@@ -8954,19 +8961,19 @@
         <v>19.0</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
       <c r="G276" s="5"/>
       <c r="H276" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I276" s="7" t="str">
         <f t="array" ref="I276">D276</f>
@@ -8978,19 +8985,19 @@
         <v>19.0</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
       <c r="G277" s="5"/>
       <c r="H277" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I277" s="7" t="str">
         <f t="array" ref="I277">D277</f>
@@ -9002,19 +9009,19 @@
         <v>19.0</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
       <c r="G278" s="5"/>
       <c r="H278" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I278" s="7" t="str">
         <f t="array" ref="I278">D278</f>
@@ -9026,19 +9033,19 @@
         <v>19.0</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
       <c r="G279" s="5"/>
       <c r="H279" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I279" s="7" t="str">
         <f t="array" ref="I279">D279</f>
@@ -9050,19 +9057,19 @@
         <v>19.0</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
       <c r="G280" s="5"/>
       <c r="H280" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I280" s="7" t="str">
         <f t="array" ref="I280">D280</f>
@@ -9074,19 +9081,19 @@
         <v>19.0</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
       <c r="G281" s="5"/>
       <c r="H281" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I281" s="7" t="str">
         <f t="array" ref="I281">D281</f>
@@ -9098,19 +9105,19 @@
         <v>19.0</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
       <c r="G282" s="5"/>
       <c r="H282" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I282" s="7" t="str">
         <f t="array" ref="I282">D282</f>
@@ -9122,19 +9129,19 @@
         <v>19.0</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
       <c r="G283" s="5"/>
       <c r="H283" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I283" s="7" t="str">
         <f t="array" ref="I283">D283</f>
@@ -9146,19 +9153,19 @@
         <v>19.0</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
       <c r="G284" s="5"/>
       <c r="H284" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I284" s="7" t="str">
         <f t="array" ref="I284">D284</f>
@@ -9170,19 +9177,19 @@
         <v>20.0</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
       <c r="H285" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I285" s="7" t="str">
         <f t="array" ref="I285">D285</f>
@@ -9194,19 +9201,19 @@
         <v>20.0</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
       <c r="G286" s="5"/>
       <c r="H286" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I286" s="7" t="str">
         <f t="array" ref="I286">D286</f>
@@ -9218,19 +9225,19 @@
         <v>20.0</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
       <c r="H287" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I287" s="7" t="str">
         <f t="array" ref="I287">D287</f>
@@ -9242,19 +9249,19 @@
         <v>20.0</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="D288" s="12" t="s">
-        <v>388</v>
+        <v>385</v>
+      </c>
+      <c r="D288" s="11" t="s">
+        <v>389</v>
       </c>
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
       <c r="G288" s="5"/>
       <c r="H288" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I288" s="7" t="str">
         <f t="array" ref="I288">D288</f>
@@ -9266,19 +9273,19 @@
         <v>20.0</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
       <c r="H289" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I289" s="7" t="str">
         <f t="array" ref="I289">D289</f>
@@ -9290,19 +9297,19 @@
         <v>20.0</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
       <c r="H290" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I290" s="7" t="str">
         <f t="array" ref="I290">D290</f>
@@ -9314,19 +9321,19 @@
         <v>20.0</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
       <c r="G291" s="5"/>
       <c r="H291" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I291" s="7" t="str">
         <f t="array" ref="I291">D291</f>
@@ -9338,19 +9345,19 @@
         <v>20.0</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
       <c r="G292" s="5"/>
       <c r="H292" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I292" s="7" t="str">
         <f t="array" ref="I292">D292</f>
@@ -9362,19 +9369,19 @@
         <v>20.0</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
       <c r="H293" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I293" s="7" t="str">
         <f t="array" ref="I293">H293&amp; D293</f>
@@ -9386,19 +9393,19 @@
         <v>20.0</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
       <c r="H294" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I294" s="7" t="str">
         <f t="array" ref="I294">H294&amp; D294</f>
@@ -9410,19 +9417,19 @@
         <v>20.0</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
       <c r="G295" s="5"/>
       <c r="H295" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I295" s="7" t="str">
         <f t="array" ref="I295">H295&amp; D295</f>
@@ -9434,19 +9441,19 @@
         <v>20.0</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
       <c r="G296" s="5"/>
       <c r="H296" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I296" s="7" t="str">
         <f t="array" ref="I296">H296&amp; D296</f>
@@ -9458,19 +9465,19 @@
         <v>20.0</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D297" s="20" t="s">
-        <v>397</v>
+        <v>385</v>
+      </c>
+      <c r="D297" s="19" t="s">
+        <v>398</v>
       </c>
       <c r="E297" s="7"/>
       <c r="F297" s="7"/>
       <c r="G297" s="7"/>
-      <c r="H297" s="20" t="s">
-        <v>355</v>
+      <c r="H297" s="19" t="s">
+        <v>356</v>
       </c>
       <c r="I297" s="7" t="str">
         <f t="array" ref="I297">D297</f>
@@ -9488,13 +9495,13 @@
         <v>286</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E298" s="7"/>
       <c r="F298" s="7"/>
       <c r="G298" s="7"/>
-      <c r="H298" s="20" t="s">
-        <v>399</v>
+      <c r="H298" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="I298" s="7" t="str">
         <f t="array" ref="I298">H298&amp; D298</f>
@@ -9512,13 +9519,13 @@
         <v>10</v>
       </c>
       <c r="D299" s="23" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E299" s="7"/>
       <c r="F299" s="7"/>
       <c r="G299" s="7"/>
-      <c r="H299" s="20" t="s">
-        <v>401</v>
+      <c r="H299" s="19" t="s">
+        <v>402</v>
       </c>
       <c r="I299" s="7" t="str">
         <f t="array" ref="I299">H299&amp; D299</f>
@@ -9536,13 +9543,13 @@
         <v>233</v>
       </c>
       <c r="D300" s="24" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E300" s="7"/>
       <c r="F300" s="7"/>
       <c r="G300" s="7"/>
-      <c r="H300" s="20" t="s">
-        <v>403</v>
+      <c r="H300" s="19" t="s">
+        <v>404</v>
       </c>
       <c r="I300" s="7" t="str">
         <f t="array" ref="I300">H300&amp; D300</f>
@@ -12378,26 +12385,26 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>405</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>406</v>
       </c>
       <c r="C2" s="27" t="str">
         <f t="array" ref="C2">A2 &amp; B2</f>
         <v>1. Florida - Casco Antiguo</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="G2" s="20"/>
+      <c r="F2" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="G2" s="19"/>
       <c r="H2" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I2" s="7" t="str">
         <f t="array" ref="I2">H2&amp;D2</f>
@@ -12405,24 +12412,24 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>405</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>406</v>
       </c>
       <c r="C3" s="27" t="str">
         <f t="array" ref="C3">A3 &amp; B3</f>
         <v>1. Florida - Casco Antiguo</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I3" s="7" t="str">
         <f t="array" ref="I3">H3&amp;D3</f>
@@ -12430,24 +12437,24 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>405</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>406</v>
       </c>
       <c r="C4" s="27" t="str">
         <f t="array" ref="C4">A4 &amp; B4</f>
         <v>1. Florida - Casco Antiguo</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I4" s="7" t="str">
         <f t="array" ref="I4">H4&amp;D4</f>
@@ -12455,26 +12462,26 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>405</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>406</v>
       </c>
       <c r="C5" s="27" t="str">
         <f t="array" ref="C5">A5 &amp; B5</f>
         <v>1. Florida - Casco Antiguo</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="G5" s="20"/>
+      <c r="F5" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="G5" s="19"/>
       <c r="H5" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I5" s="7" t="str">
         <f t="array" ref="I5">H5&amp;D5</f>
@@ -12482,26 +12489,26 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>405</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>406</v>
       </c>
       <c r="C6" s="27" t="str">
         <f t="array" ref="C6">A6 &amp; B6</f>
         <v>1. Florida - Casco Antiguo</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="G6" s="20"/>
+      <c r="F6" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="G6" s="19"/>
       <c r="H6" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I6" s="7" t="str">
         <f t="array" ref="I6">H6&amp;D6</f>
@@ -12509,11 +12516,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>405</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>406</v>
       </c>
       <c r="C7" s="27" t="str">
         <f t="array" ref="C7">A7 &amp; B7</f>
@@ -12523,12 +12530,12 @@
         <v>311</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="G7" s="20"/>
+      <c r="F7" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="G7" s="19"/>
       <c r="H7" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="array" ref="I7">H7&amp;D7</f>
@@ -12536,26 +12543,26 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="20" t="s">
-        <v>404</v>
+      <c r="A8" s="19" t="s">
+        <v>405</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C8" s="27" t="str">
         <f t="array" ref="C8">A8 &amp; B8</f>
         <v>1. Florida - Casco Antiguo</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="27" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I8" s="7" t="str">
         <f t="array" ref="I8">H8&amp;D8</f>
@@ -12563,24 +12570,24 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="20" t="s">
-        <v>404</v>
+      <c r="A9" s="19" t="s">
+        <v>405</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C9" s="27" t="str">
         <f t="array" ref="C9">A9 &amp; B9</f>
         <v>1. Florida - Casco Antiguo</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I9" s="7" t="str">
         <f t="array" ref="I9">H9&amp;D9</f>
@@ -12588,26 +12595,26 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="20" t="s">
-        <v>418</v>
+      <c r="A10" s="19" t="s">
+        <v>419</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C10" s="27" t="str">
         <f t="array" ref="C10">A10 &amp; B10</f>
         <v>2. Cañaveral -Versalles</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="27" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I10" s="7" t="str">
         <f t="array" ref="I10">H10&amp;D10</f>
@@ -12615,11 +12622,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="20" t="s">
-        <v>418</v>
+      <c r="A11" s="19" t="s">
+        <v>419</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C11" s="27" t="str">
         <f t="array" ref="C11">A11 &amp; B11</f>
@@ -12632,7 +12639,7 @@
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I11" s="7" t="str">
         <f t="array" ref="I11">H11&amp;D11</f>
@@ -12640,26 +12647,26 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="20" t="s">
-        <v>422</v>
+      <c r="A12" s="19" t="s">
+        <v>423</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C12" s="27" t="str">
         <f t="array" ref="C12">A12 &amp; B12</f>
         <v>5. Bosques - Molinos</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I12" s="7" t="str">
         <f t="array" ref="I12">H12&amp;D12</f>
@@ -12667,24 +12674,24 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="20" t="s">
-        <v>418</v>
+      <c r="A13" s="19" t="s">
+        <v>419</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C13" s="27" t="str">
         <f t="array" ref="C13">A13 &amp; B13</f>
         <v>2. Cañaveral -Versalles</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I13" s="7" t="str">
         <f t="array" ref="I13">H13&amp;D13</f>
@@ -12692,26 +12699,26 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="20" t="s">
-        <v>422</v>
+      <c r="A14" s="19" t="s">
+        <v>423</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C14" s="27" t="str">
         <f t="array" ref="C14">A14 &amp; B14</f>
         <v>5. Bosques - Molinos</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="27" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I14" s="7" t="str">
         <f t="array" ref="I14">H14&amp;D14</f>
@@ -12719,26 +12726,26 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="20" t="s">
-        <v>422</v>
+      <c r="A15" s="19" t="s">
+        <v>423</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C15" s="27" t="str">
         <f t="array" ref="C15">A15 &amp; B15</f>
         <v>5. Bosques - Molinos</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="27" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="array" ref="I15">H15&amp;D15</f>
@@ -12746,26 +12753,26 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="20" t="s">
-        <v>422</v>
+      <c r="A16" s="19" t="s">
+        <v>423</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C16" s="27" t="str">
         <f t="array" ref="C16">A16 &amp; B16</f>
         <v>5. Bosques - Molinos</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="27" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="array" ref="I16">H16&amp;D16</f>
@@ -12773,26 +12780,26 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="20" t="s">
-        <v>422</v>
+      <c r="A17" s="19" t="s">
+        <v>423</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C17" s="27" t="str">
         <f t="array" ref="C17">A17 &amp; B17</f>
         <v>5. Bosques - Molinos</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="27" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I17" s="7" t="str">
         <f t="array" ref="I17">H17&amp;D17</f>
@@ -12800,24 +12807,24 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="20" t="s">
-        <v>422</v>
+      <c r="A18" s="19" t="s">
+        <v>423</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C18" s="27" t="str">
         <f t="array" ref="C18">A18 &amp; B18</f>
         <v>5. Bosques - Molinos</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I18" s="7" t="str">
         <f t="array" ref="I18">H18&amp;D18</f>
@@ -12825,26 +12832,26 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="20" t="s">
-        <v>436</v>
+      <c r="A19" s="19" t="s">
+        <v>437</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C19" s="27" t="str">
         <f t="array" ref="C19">A19 &amp; B19</f>
         <v>3. Bucarica-Caracoli</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="27" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I19" s="7" t="str">
         <f t="array" ref="I19">H19&amp;D19</f>
@@ -12852,26 +12859,26 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="20" t="s">
-        <v>436</v>
+      <c r="A20" s="19" t="s">
+        <v>437</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C20" s="27" t="str">
         <f t="array" ref="C20">A20 &amp; B20</f>
         <v>3. Bucarica-Caracoli</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="27" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I20" s="7" t="str">
         <f t="array" ref="I20">H20&amp;D20</f>
@@ -12879,26 +12886,26 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="20" t="s">
-        <v>442</v>
+      <c r="A21" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C21" s="27" t="str">
         <f t="array" ref="C21">A21 &amp; B21</f>
         <v>4. Caldas - Reposo</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="27" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I21" s="7" t="str">
         <f t="array" ref="I21">H21&amp;D21</f>
@@ -12906,26 +12913,26 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="20" t="s">
-        <v>442</v>
+      <c r="A22" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C22" s="27" t="str">
         <f t="array" ref="C22">A22 &amp; B22</f>
         <v>4. Caldas - Reposo</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="27" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I22" s="7" t="str">
         <f t="array" ref="I22">H22&amp;D22</f>
@@ -12933,26 +12940,26 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="20" t="s">
-        <v>442</v>
+      <c r="A23" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C23" s="27" t="str">
         <f t="array" ref="C23">A23 &amp; B23</f>
         <v>4. Caldas - Reposo</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="27" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I23" s="7" t="str">
         <f t="array" ref="I23">H23&amp;D23</f>
@@ -12960,26 +12967,26 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="20" t="s">
-        <v>442</v>
+      <c r="A24" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C24" s="27" t="str">
         <f t="array" ref="C24">A24 &amp; B24</f>
         <v>4. Caldas - Reposo</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="27" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I24" s="7" t="str">
         <f t="array" ref="I24">H24&amp;D24</f>
@@ -12987,26 +12994,26 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="20" t="s">
-        <v>442</v>
+      <c r="A25" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C25" s="27" t="str">
         <f t="array" ref="C25">A25 &amp; B25</f>
         <v>4. Caldas - Reposo</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="27" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I25" s="7" t="str">
         <f t="array" ref="I25">H25&amp;D25</f>
@@ -13014,24 +13021,24 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="20" t="s">
-        <v>442</v>
+      <c r="A26" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C26" s="27" t="str">
         <f t="array" ref="C26">A26 &amp; B26</f>
         <v>4. Caldas - Reposo</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I26" s="7" t="str">
         <f t="array" ref="I26">H26&amp;D26</f>
@@ -13039,24 +13046,24 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="20" t="s">
-        <v>442</v>
+      <c r="A27" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C27" s="27" t="str">
         <f t="array" ref="C27">A27 &amp; B27</f>
         <v>4. Caldas - Reposo</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I27" s="7" t="str">
         <f t="array" ref="I27">H27&amp;D27</f>
@@ -13064,24 +13071,24 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="20" t="s">
-        <v>442</v>
+      <c r="A28" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C28" s="27" t="str">
         <f t="array" ref="C28">A28 &amp; B28</f>
         <v>4. Caldas - Reposo</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>456</v>
+      <c r="D28" s="17" t="s">
+        <v>457</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I28" s="7" t="str">
         <f t="array" ref="I28">H28&amp;D28</f>
@@ -13089,24 +13096,24 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="20" t="s">
-        <v>442</v>
+      <c r="A29" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C29" s="27" t="str">
         <f t="array" ref="C29">A29 &amp; B29</f>
         <v>4. Caldas - Reposo</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I29" s="7" t="str">
         <f t="array" ref="I29">H29&amp;D29</f>
@@ -13114,24 +13121,24 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="20" t="s">
-        <v>442</v>
+      <c r="A30" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C30" s="27" t="str">
         <f t="array" ref="C30">A30 &amp; B30</f>
         <v>4. Caldas - Reposo</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I30" s="7" t="str">
         <f t="array" ref="I30">H30&amp;D30</f>
@@ -13139,24 +13146,24 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="20" t="s">
-        <v>442</v>
+      <c r="A31" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C31" s="27" t="str">
         <f t="array" ref="C31">A31 &amp; B31</f>
         <v>4. Caldas - Reposo</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I31" s="7" t="str">
         <f t="array" ref="I31">H31&amp;D31</f>
@@ -13164,24 +13171,24 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="20" t="s">
-        <v>442</v>
+      <c r="A32" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C32" s="27" t="str">
         <f t="array" ref="C32">A32 &amp; B32</f>
         <v>4. Caldas - Reposo</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I32" s="7" t="str">
         <f t="array" ref="I32">H32&amp;D32</f>
@@ -13189,11 +13196,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="20" t="s">
-        <v>442</v>
+      <c r="A33" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C33" s="27" t="str">
         <f t="array" ref="C33">A33 &amp; B33</f>
@@ -13206,7 +13213,7 @@
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I33" s="7" t="str">
         <f t="array" ref="I33">H33&amp;D33</f>
@@ -13214,24 +13221,24 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="20" t="s">
-        <v>442</v>
+      <c r="A34" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C34" s="27" t="str">
         <f t="array" ref="C34">A34 &amp; B34</f>
         <v>4. Caldas - Reposo</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
       <c r="H34" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I34" s="7" t="str">
         <f t="array" ref="I34">H34&amp;D34</f>
@@ -13239,24 +13246,24 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="20" t="s">
-        <v>442</v>
+      <c r="A35" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C35" s="27" t="str">
         <f t="array" ref="C35">A35 &amp; B35</f>
         <v>4. Caldas - Reposo</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I35" s="7" t="str">
         <f t="array" ref="I35">H35&amp;D35</f>
@@ -13264,26 +13271,26 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="20" t="s">
-        <v>418</v>
+      <c r="A36" s="19" t="s">
+        <v>419</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C36" s="27" t="str">
         <f t="array" ref="C36">A36 &amp; B36</f>
         <v>2. Cañaveral -Versalles</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="27" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I36" s="7" t="str">
         <f t="array" ref="I36">H36&amp;D36</f>
@@ -13291,26 +13298,26 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="20" t="s">
-        <v>418</v>
+      <c r="A37" s="19" t="s">
+        <v>419</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C37" s="27" t="str">
         <f t="array" ref="C37">A37 &amp; B37</f>
         <v>2. Cañaveral -Versalles</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="27" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I37" s="7" t="str">
         <f t="array" ref="I37">H37&amp;D37</f>
@@ -13318,26 +13325,26 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="20" t="s">
-        <v>418</v>
+      <c r="A38" s="19" t="s">
+        <v>419</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C38" s="27" t="str">
         <f t="array" ref="C38">A38 &amp; B38</f>
         <v>2. Cañaveral -Versalles</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="27" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I38" s="7" t="str">
         <f t="array" ref="I38">H38&amp;D38</f>
@@ -13345,26 +13352,26 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="20" t="s">
-        <v>404</v>
+      <c r="A39" s="19" t="s">
+        <v>405</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C39" s="27" t="str">
         <f t="array" ref="C39">A39 &amp; B39</f>
         <v>1. Florida - Casco Antiguo</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="27" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I39" s="7" t="str">
         <f t="array" ref="I39">H39&amp;D39</f>
@@ -13372,26 +13379,26 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="20" t="s">
-        <v>471</v>
+      <c r="A40" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C40" s="27" t="str">
         <f t="array" ref="C40">A40 &amp; B40</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="27" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I40" s="7" t="str">
         <f t="array" ref="I40">H40&amp;D40</f>
@@ -13399,26 +13406,26 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="20" t="s">
-        <v>471</v>
+      <c r="A41" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C41" s="27" t="str">
         <f t="array" ref="C41">A41 &amp; B41</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="27" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I41" s="7" t="str">
         <f t="array" ref="I41">H41&amp;D41</f>
@@ -13426,26 +13433,26 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="20" t="s">
-        <v>471</v>
+      <c r="A42" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C42" s="27" t="str">
         <f t="array" ref="C42">A42 &amp; B42</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="27" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I42" s="7" t="str">
         <f t="array" ref="I42">H42&amp;D42</f>
@@ -13453,24 +13460,24 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="20" t="s">
-        <v>471</v>
+      <c r="A43" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C43" s="27" t="str">
         <f t="array" ref="C43">A43 &amp; B43</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I43" s="7" t="str">
         <f t="array" ref="I43">H43&amp;D43</f>
@@ -13478,24 +13485,24 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="20" t="s">
-        <v>471</v>
+      <c r="A44" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C44" s="27" t="str">
         <f t="array" ref="C44">A44 &amp; B44</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="27"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I44" s="7" t="str">
         <f t="array" ref="I44">H44&amp;D44</f>
@@ -13503,24 +13510,24 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="20" t="s">
-        <v>471</v>
+      <c r="A45" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C45" s="27" t="str">
         <f t="array" ref="C45">A45 &amp; B45</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I45" s="7" t="str">
         <f t="array" ref="I45">H45&amp;D45</f>
@@ -13528,24 +13535,24 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="20" t="s">
-        <v>471</v>
+      <c r="A46" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C46" s="27" t="str">
         <f t="array" ref="C46">A46 &amp; B46</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I46" s="7" t="str">
         <f t="array" ref="I46">H46&amp;D46</f>
@@ -13553,24 +13560,24 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="20" t="s">
-        <v>471</v>
+      <c r="A47" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C47" s="27" t="str">
         <f t="array" ref="C47">A47 &amp; B47</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="27"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I47" s="7" t="str">
         <f t="array" ref="I47">H47&amp;D47</f>
@@ -13578,24 +13585,24 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="20" t="s">
-        <v>471</v>
+      <c r="A48" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C48" s="27" t="str">
         <f t="array" ref="C48">A48 &amp; B48</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="27"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I48" s="7" t="str">
         <f t="array" ref="I48">H48&amp;D48</f>
@@ -13603,24 +13610,24 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="20" t="s">
-        <v>471</v>
+      <c r="A49" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C49" s="27" t="str">
         <f t="array" ref="C49">A49 &amp; B49</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="27"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I49" s="7" t="str">
         <f t="array" ref="I49">H49&amp;D49</f>
@@ -13628,24 +13635,24 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="20" t="s">
-        <v>471</v>
+      <c r="A50" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C50" s="27" t="str">
         <f t="array" ref="C50">A50 &amp; B50</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
       <c r="H50" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I50" s="7" t="str">
         <f t="array" ref="I50">H50&amp;D50</f>
@@ -13653,24 +13660,24 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="20" t="s">
-        <v>471</v>
+      <c r="A51" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C51" s="27" t="str">
         <f t="array" ref="C51">A51 &amp; B51</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I51" s="7" t="str">
         <f t="array" ref="I51">H51&amp;D51</f>
@@ -13678,24 +13685,24 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="20" t="s">
-        <v>471</v>
+      <c r="A52" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C52" s="27" t="str">
         <f t="array" ref="C52">A52 &amp; B52</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="27"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I52" s="7" t="str">
         <f t="array" ref="I52">H52&amp;D52</f>
@@ -13703,24 +13710,24 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="20" t="s">
-        <v>471</v>
+      <c r="A53" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C53" s="27" t="str">
         <f t="array" ref="C53">A53 &amp; B53</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I53" s="7" t="str">
         <f t="array" ref="I53">H53&amp;D53</f>
@@ -13728,24 +13735,24 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="20" t="s">
-        <v>471</v>
+      <c r="A54" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C54" s="27" t="str">
         <f t="array" ref="C54">A54 &amp; B54</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="27"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I54" s="7" t="str">
         <f t="array" ref="I54">H54&amp;D54</f>
@@ -13753,24 +13760,24 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="20" t="s">
-        <v>471</v>
+      <c r="A55" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C55" s="27" t="str">
         <f t="array" ref="C55">A55 &amp; B55</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="27"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I55" s="7" t="str">
         <f t="array" ref="I55">H55&amp;D55</f>
@@ -13778,24 +13785,24 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="20" t="s">
-        <v>471</v>
+      <c r="A56" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C56" s="27" t="str">
         <f t="array" ref="C56">A56 &amp; B56</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I56" s="7" t="str">
         <f t="array" ref="I56">H56&amp;D56</f>
@@ -13803,24 +13810,24 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="20" t="s">
-        <v>471</v>
+      <c r="A57" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C57" s="27" t="str">
         <f t="array" ref="C57">A57 &amp; B57</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="27"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I57" s="7" t="str">
         <f t="array" ref="I57">H57&amp;D57</f>
@@ -13828,24 +13835,24 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="20" t="s">
-        <v>471</v>
+      <c r="A58" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C58" s="27" t="str">
         <f t="array" ref="C58">A58 &amp; B58</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="27"/>
       <c r="G58" s="27"/>
       <c r="H58" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I58" s="7" t="str">
         <f t="array" ref="I58">H58&amp;D58</f>
@@ -13853,24 +13860,24 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="20" t="s">
-        <v>471</v>
+      <c r="A59" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C59" s="27" t="str">
         <f t="array" ref="C59">A59 &amp; B59</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="27"/>
       <c r="G59" s="27"/>
       <c r="H59" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I59" s="7" t="str">
         <f t="array" ref="I59">H59&amp;D59</f>
@@ -13878,24 +13885,24 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="20" t="s">
-        <v>471</v>
+      <c r="A60" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C60" s="27" t="str">
         <f t="array" ref="C60">A60 &amp; B60</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="27"/>
       <c r="G60" s="27"/>
       <c r="H60" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I60" s="7" t="str">
         <f t="array" ref="I60">H60&amp;D60</f>
@@ -13903,24 +13910,24 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="20" t="s">
-        <v>471</v>
+      <c r="A61" s="19" t="s">
+        <v>472</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C61" s="27" t="str">
         <f t="array" ref="C61">A61 &amp; B61</f>
         <v>8. La Cumbre - Carmen</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
       <c r="H61" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I61" s="7" t="str">
         <f t="array" ref="I61">H61&amp;D61</f>
@@ -13928,26 +13935,26 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="20" t="s">
-        <v>498</v>
+      <c r="A62" s="19" t="s">
+        <v>499</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C62" s="27" t="str">
         <f t="array" ref="C62">A62 &amp; B62</f>
         <v>6. Lagos - Bellavista</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="27" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G62" s="27"/>
       <c r="H62" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I62" s="7" t="str">
         <f t="array" ref="I62">H62&amp;D62</f>
@@ -13955,26 +13962,26 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="20" t="s">
-        <v>404</v>
+      <c r="A63" s="19" t="s">
+        <v>405</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C63" s="27" t="str">
         <f t="array" ref="C63">A63 &amp; B63</f>
         <v>1. Florida - Casco Antiguo</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="27" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G63" s="27"/>
       <c r="H63" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I63" s="7" t="str">
         <f t="array" ref="I63">H63&amp;D63</f>
@@ -13982,26 +13989,26 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="20" t="s">
-        <v>498</v>
+      <c r="A64" s="19" t="s">
+        <v>499</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C64" s="27" t="str">
         <f t="array" ref="C64">A64 &amp; B64</f>
         <v>6. Lagos - Bellavista</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="27" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G64" s="27"/>
       <c r="H64" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I64" s="7" t="str">
         <f t="array" ref="I64">H64&amp;D64</f>
@@ -14009,26 +14016,26 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="20" t="s">
-        <v>404</v>
+      <c r="A65" s="19" t="s">
+        <v>405</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C65" s="27" t="str">
         <f t="array" ref="C65">A65 &amp; B65</f>
         <v>1. Florida - Casco Antiguo</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="27" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G65" s="27"/>
       <c r="H65" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I65" s="7" t="str">
         <f t="array" ref="I65">H65&amp;D65</f>
@@ -14036,24 +14043,24 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="20" t="s">
-        <v>404</v>
+      <c r="A66" s="19" t="s">
+        <v>405</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C66" s="27" t="str">
         <f t="array" ref="C66">A66 &amp; B66</f>
         <v>1. Florida - Casco Antiguo</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
       <c r="H66" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I66" s="7" t="str">
         <f t="array" ref="I66">H66&amp;D66</f>
@@ -14061,26 +14068,26 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="20" t="s">
-        <v>418</v>
+      <c r="A67" s="19" t="s">
+        <v>419</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C67" s="27" t="str">
         <f t="array" ref="C67">A67 &amp; B67</f>
         <v>2. Cañaveral -Versalles</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="27" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G67" s="27"/>
       <c r="H67" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I67" s="7" t="str">
         <f t="array" ref="I67">H67&amp;D67</f>
@@ -14088,11 +14095,11 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="20" t="s">
-        <v>418</v>
+      <c r="A68" s="19" t="s">
+        <v>419</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C68" s="27" t="str">
         <f t="array" ref="C68">A68 &amp; B68</f>
@@ -14103,11 +14110,11 @@
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="27" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G68" s="27"/>
       <c r="H68" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I68" s="7" t="str">
         <f t="array" ref="I68">H68&amp;D68</f>
@@ -14115,26 +14122,26 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="20" t="s">
-        <v>418</v>
+      <c r="A69" s="19" t="s">
+        <v>419</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C69" s="27" t="str">
         <f t="array" ref="C69">A69 &amp; B69</f>
         <v>2. Cañaveral -Versalles</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="27" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G69" s="27"/>
       <c r="H69" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I69" s="7" t="str">
         <f t="array" ref="I69">H69&amp;D69</f>
@@ -14142,26 +14149,26 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="B70" s="20" t="s">
+      <c r="A70" s="19" t="s">
         <v>515</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>516</v>
       </c>
       <c r="C70" s="27" t="str">
         <f t="array" ref="C70">A70 &amp; B70</f>
         <v>0. Condominio Ruitoque</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E70" s="7"/>
-      <c r="F70" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="G70" s="20"/>
+      <c r="F70" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="G70" s="19"/>
       <c r="H70" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I70" s="7" t="str">
         <f t="array" ref="I70">H70&amp;D70</f>
@@ -14169,26 +14176,26 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="20" t="s">
-        <v>517</v>
+      <c r="A71" s="19" t="s">
+        <v>518</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C71" s="27" t="str">
         <f t="array" ref="C71">A71 &amp; B71</f>
         <v>7. Villabel-Santa Ana</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="27" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I71" s="7" t="str">
         <f t="array" ref="I71">H71&amp;D71</f>
@@ -14196,26 +14203,26 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="20" t="s">
-        <v>517</v>
+      <c r="A72" s="19" t="s">
+        <v>518</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C72" s="27" t="str">
         <f t="array" ref="C72">A72 &amp; B72</f>
         <v>7. Villabel-Santa Ana</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="27" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G72" s="27"/>
       <c r="H72" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I72" s="7" t="str">
         <f t="array" ref="I72">H72&amp;D72</f>
@@ -14223,24 +14230,24 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="20" t="s">
-        <v>517</v>
+      <c r="A73" s="19" t="s">
+        <v>518</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C73" s="27" t="str">
         <f t="array" ref="C73">A73 &amp; B73</f>
         <v>7. Villabel-Santa Ana</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
       <c r="H73" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I73" s="7" t="str">
         <f t="array" ref="I73">H73&amp;D73</f>
@@ -14248,26 +14255,26 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="20" t="s">
-        <v>418</v>
+      <c r="A74" s="19" t="s">
+        <v>419</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C74" s="27" t="str">
         <f t="array" ref="C74">A74 &amp; B74</f>
         <v>2. Cañaveral -Versalles</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="27" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G74" s="27"/>
       <c r="H74" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I74" s="7" t="str">
         <f t="array" ref="I74">H74&amp;D74</f>
@@ -14275,21 +14282,21 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="20" t="s">
-        <v>526</v>
+      <c r="A75" s="19" t="s">
+        <v>527</v>
       </c>
       <c r="B75" s="7"/>
-      <c r="C75" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D75" s="20" t="s">
+      <c r="C75" s="19" t="s">
         <v>528</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>529</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
-      <c r="H75" s="20" t="s">
-        <v>529</v>
+      <c r="H75" s="19" t="s">
+        <v>530</v>
       </c>
       <c r="I75" s="7" t="str">
         <f t="array" ref="I75">H75&amp;D75</f>
@@ -14297,21 +14304,21 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="20" t="s">
-        <v>526</v>
+      <c r="A76" s="19" t="s">
+        <v>527</v>
       </c>
       <c r="B76" s="7"/>
-      <c r="C76" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>530</v>
+      <c r="C76" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>531</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
-      <c r="H76" s="20" t="s">
-        <v>529</v>
+      <c r="H76" s="19" t="s">
+        <v>530</v>
       </c>
       <c r="I76" s="7" t="str">
         <f t="array" ref="I76">H76&amp;D76</f>
@@ -14319,21 +14326,21 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="20" t="s">
-        <v>526</v>
+      <c r="A77" s="19" t="s">
+        <v>527</v>
       </c>
       <c r="B77" s="7"/>
-      <c r="C77" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>531</v>
+      <c r="C77" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>532</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
-      <c r="H77" s="20" t="s">
-        <v>529</v>
+      <c r="H77" s="19" t="s">
+        <v>530</v>
       </c>
       <c r="I77" s="7" t="str">
         <f t="array" ref="I77">H77&amp;D77</f>
@@ -14341,21 +14348,21 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="20" t="s">
-        <v>526</v>
+      <c r="A78" s="19" t="s">
+        <v>527</v>
       </c>
       <c r="B78" s="7"/>
-      <c r="C78" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>532</v>
+      <c r="C78" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>533</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
-      <c r="H78" s="20" t="s">
-        <v>529</v>
+      <c r="H78" s="19" t="s">
+        <v>530</v>
       </c>
       <c r="I78" s="7" t="str">
         <f t="array" ref="I78">H78&amp;D78</f>
@@ -14363,21 +14370,21 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="20" t="s">
-        <v>526</v>
+      <c r="A79" s="19" t="s">
+        <v>527</v>
       </c>
       <c r="B79" s="7"/>
-      <c r="C79" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>533</v>
+      <c r="C79" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>534</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
-      <c r="H79" s="20" t="s">
-        <v>529</v>
+      <c r="H79" s="19" t="s">
+        <v>530</v>
       </c>
       <c r="I79" s="7" t="str">
         <f t="array" ref="I79">H79&amp;D79</f>
@@ -14385,21 +14392,21 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="20" t="s">
-        <v>526</v>
+      <c r="A80" s="19" t="s">
+        <v>527</v>
       </c>
       <c r="B80" s="7"/>
-      <c r="C80" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>534</v>
+      <c r="C80" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>535</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
-      <c r="H80" s="20" t="s">
-        <v>529</v>
+      <c r="H80" s="19" t="s">
+        <v>530</v>
       </c>
       <c r="I80" s="7" t="str">
         <f t="array" ref="I80">H80&amp;D80</f>
@@ -14407,21 +14414,21 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="20" t="s">
-        <v>526</v>
+      <c r="A81" s="19" t="s">
+        <v>527</v>
       </c>
       <c r="B81" s="7"/>
-      <c r="C81" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>535</v>
+      <c r="C81" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>536</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
-      <c r="H81" s="20" t="s">
-        <v>529</v>
+      <c r="H81" s="19" t="s">
+        <v>530</v>
       </c>
       <c r="I81" s="7" t="str">
         <f t="array" ref="I81">H81&amp;D81</f>
@@ -14429,21 +14436,21 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="20" t="s">
-        <v>526</v>
+      <c r="A82" s="19" t="s">
+        <v>527</v>
       </c>
       <c r="B82" s="7"/>
-      <c r="C82" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>536</v>
+      <c r="C82" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>537</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
-      <c r="H82" s="20" t="s">
-        <v>529</v>
+      <c r="H82" s="19" t="s">
+        <v>530</v>
       </c>
       <c r="I82" s="7" t="str">
         <f t="array" ref="I82">H82&amp;D82</f>
@@ -14498,412 +14505,415 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21">
+      <c r="A2" s="17">
         <v>0.0</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>539</v>
       </c>
+      <c r="E2" s="17" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="21">
+      <c r="A3" s="17">
         <v>0.0</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>540</v>
+      <c r="B3" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21">
+      <c r="A4" s="17">
         <v>0.0</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>537</v>
+      <c r="B4" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21">
+      <c r="A5" s="17">
         <v>0.0</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>537</v>
+      <c r="B5" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21">
+      <c r="A6" s="17">
         <v>0.0</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>537</v>
+      <c r="B6" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21">
+      <c r="A7" s="17">
         <v>0.0</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>544</v>
+      <c r="B7" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21">
+      <c r="A8" s="17">
         <v>0.0</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>537</v>
+      <c r="B8" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21">
+      <c r="A9" s="17">
         <v>0.0</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>546</v>
+      <c r="B9" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21">
+      <c r="A10" s="17">
         <v>0.0</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>537</v>
+      <c r="B10" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="21">
+      <c r="A11" s="17">
         <v>0.0</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>537</v>
+      <c r="B11" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21">
+      <c r="A12" s="17">
         <v>0.0</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>537</v>
+      <c r="B12" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="21">
+      <c r="A13" s="17">
         <v>0.0</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>537</v>
+      <c r="B13" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21">
+      <c r="A14" s="17">
         <v>0.0</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>551</v>
+      <c r="B14" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21">
+      <c r="A15" s="17">
         <v>0.0</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>537</v>
+      <c r="B15" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21">
+      <c r="A16" s="17">
         <v>0.0</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>553</v>
+      <c r="B16" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="21">
+      <c r="A17" s="17">
         <v>0.0</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>554</v>
+      <c r="B17" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21">
+      <c r="A18" s="17">
         <v>0.0</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>537</v>
+      <c r="B18" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="21">
+      <c r="A19" s="17">
         <v>0.0</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>556</v>
+      <c r="B19" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21">
+      <c r="A20" s="17">
         <v>0.0</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>537</v>
+      <c r="B20" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="21">
+      <c r="A21" s="17">
         <v>0.0</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>537</v>
+      <c r="B21" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21">
+      <c r="A22" s="17">
         <v>0.0</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>537</v>
+      <c r="B22" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="21">
+      <c r="A23" s="17">
         <v>0.0</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>560</v>
+      <c r="B23" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21">
+      <c r="A24" s="17">
         <v>0.0</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>561</v>
+      <c r="B24" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="21">
+      <c r="A25" s="17">
         <v>0.0</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>562</v>
+      <c r="B25" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21">
+      <c r="A26" s="17">
         <v>0.0</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>537</v>
+      <c r="B26" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="21">
+      <c r="A27" s="17">
         <v>0.0</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>537</v>
+      <c r="B27" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21">
+      <c r="A28" s="17">
         <v>0.0</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>537</v>
+      <c r="B28" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="21">
+      <c r="A29" s="17">
         <v>0.0</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>537</v>
+      <c r="B29" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21">
+      <c r="A30" s="17">
         <v>0.0</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>567</v>
+      <c r="B30" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -14969,118 +14979,118 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
-        <v>568</v>
+      <c r="A1" s="17" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
-        <v>569</v>
+      <c r="A2" s="17" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="s">
-        <v>570</v>
+      <c r="A3" s="17" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="s">
-        <v>571</v>
+      <c r="A4" s="17" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="s">
-        <v>572</v>
+      <c r="A5" s="17" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="s">
-        <v>573</v>
+      <c r="A6" s="17" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="s">
-        <v>574</v>
+      <c r="A7" s="17" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="s">
-        <v>537</v>
+      <c r="A8" s="17" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="s">
-        <v>575</v>
+      <c r="A9" s="17" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="s">
-        <v>576</v>
+      <c r="A10" s="17" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="21" t="s">
-        <v>577</v>
+      <c r="A11" s="17" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="s">
-        <v>578</v>
+      <c r="A12" s="17" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="s">
-        <v>579</v>
+      <c r="A13" s="17" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21" t="s">
-        <v>580</v>
+      <c r="A14" s="17" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="s">
-        <v>581</v>
+      <c r="A15" s="17" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="s">
-        <v>582</v>
+      <c r="A16" s="17" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="s">
-        <v>583</v>
+      <c r="A17" s="17" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21" t="s">
-        <v>584</v>
+      <c r="A18" s="17" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="21" t="s">
-        <v>585</v>
+      <c r="A19" s="17" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21" t="s">
-        <v>586</v>
+      <c r="A20" s="17" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="21" t="s">
-        <v>587</v>
+      <c r="A21" s="17" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21" t="s">
-        <v>588</v>
+      <c r="A22" s="17" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="21" t="s">
-        <v>589</v>
+      <c r="A23" s="17" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>
